--- a/Endpooints GS2.xlsx
+++ b/Endpooints GS2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supev\Documents\EOQ\FIAP\1TDSPM\Global Solution 2\Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supev\Documents\EOQ\FIAP\1TDSPM\Global Solution 2\Java\gslevi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967EAB2F-B9DB-49C9-A8D3-BFC00C745785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB333738-C20E-4162-8C75-FB83D39B6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D11:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
